--- a/Departments/MBB.xlsx
+++ b/Departments/MBB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE58BAA-95CB-4ECF-B218-A670C834D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFF055-3269-42D7-A5E6-444312CE945F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF13622-60FC-4DAD-A94C-C0B4982C381E}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{6CF13622-60FC-4DAD-A94C-C0B4982C381E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1234,6 +1228,12 @@
   </si>
   <si>
     <t>FANX99,STAT201,STAT203,STAT205,STAT270</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I128"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,3546 +1607,3546 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
         <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
         <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
         <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
         <v>109</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
         <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
         <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
         <v>126</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s">
-        <v>128</v>
-      </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
         <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
         <v>132</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
         <v>135</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
         <v>136</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
         <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
         <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
         <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
         <v>158</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
         <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" t="s">
         <v>166</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s">
         <v>167</v>
-      </c>
-      <c r="E46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
         <v>175</v>
-      </c>
-      <c r="E49" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s">
         <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
         <v>181</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" t="s">
-        <v>183</v>
-      </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
         <v>188</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s">
         <v>191</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
         <v>194</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" t="s">
         <v>197</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
         <v>198</v>
-      </c>
-      <c r="E57" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" t="s">
         <v>201</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>202</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
         <v>203</v>
-      </c>
-      <c r="F58" t="s">
-        <v>204</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I58" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" t="s">
         <v>206</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
         <v>207</v>
-      </c>
-      <c r="E59" t="s">
-        <v>203</v>
-      </c>
-      <c r="F59" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s">
-        <v>43</v>
-      </c>
-      <c r="I59" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
         <v>210</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s">
         <v>211</v>
-      </c>
-      <c r="E60" t="s">
-        <v>203</v>
-      </c>
-      <c r="F60" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
         <v>214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
         <v>217</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s">
         <v>218</v>
-      </c>
-      <c r="E62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I62" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s">
         <v>221</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" t="s">
-        <v>219</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
         <v>224</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s">
-        <v>43</v>
-      </c>
-      <c r="I64" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s">
         <v>231</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s">
         <v>234</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" t="s">
-        <v>235</v>
-      </c>
-      <c r="E68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s">
         <v>243</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" t="s">
         <v>264</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>265</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
         <v>266</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>267</v>
-      </c>
-      <c r="F82" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s">
-        <v>268</v>
-      </c>
-      <c r="I82" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83" t="s">
         <v>270</v>
       </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>265</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>271</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" t="s">
         <v>272</v>
-      </c>
-      <c r="F83" t="s">
-        <v>273</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s">
-        <v>268</v>
-      </c>
-      <c r="I83" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
         <v>275</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
         <v>276</v>
-      </c>
-      <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
         <v>279</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s">
-        <v>116</v>
-      </c>
-      <c r="I85" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>281</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
         <v>282</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s">
-        <v>116</v>
-      </c>
-      <c r="I86" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
         <v>285</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="F87" t="s">
+        <v>286</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
         <v>114</v>
       </c>
-      <c r="D87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>287</v>
-      </c>
-      <c r="F87" t="s">
-        <v>288</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" t="s">
         <v>290</v>
       </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>291</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s">
         <v>292</v>
-      </c>
-      <c r="F88" t="s">
-        <v>293</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I88" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s">
         <v>299</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s">
-        <v>43</v>
-      </c>
-      <c r="I91" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93" t="s">
         <v>304</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s">
         <v>305</v>
-      </c>
-      <c r="E93" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s">
-        <v>43</v>
-      </c>
-      <c r="I93" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>306</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94" t="s">
         <v>308</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s">
         <v>309</v>
-      </c>
-      <c r="E94" t="s">
-        <v>310</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s">
-        <v>43</v>
-      </c>
-      <c r="I94" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s">
         <v>312</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" t="s">
-        <v>313</v>
-      </c>
-      <c r="E95" t="s">
-        <v>72</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s">
-        <v>43</v>
-      </c>
-      <c r="I95" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s">
         <v>317</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E97" t="s">
-        <v>168</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s">
-        <v>43</v>
-      </c>
-      <c r="I97" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" t="s">
         <v>320</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s">
         <v>321</v>
-      </c>
-      <c r="E98" t="s">
-        <v>322</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s">
-        <v>43</v>
-      </c>
-      <c r="I98" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99" t="s">
         <v>324</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>41</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s">
         <v>325</v>
-      </c>
-      <c r="E99" t="s">
-        <v>326</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s">
-        <v>43</v>
-      </c>
-      <c r="I99" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I101" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>330</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>331</v>
+      </c>
+      <c r="E102" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s">
         <v>332</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>41</v>
-      </c>
-      <c r="D102" t="s">
-        <v>333</v>
-      </c>
-      <c r="E102" t="s">
-        <v>168</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" t="s">
-        <v>43</v>
-      </c>
-      <c r="I102" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s">
+        <v>336</v>
+      </c>
+      <c r="E104" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s">
         <v>337</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" t="s">
-        <v>338</v>
-      </c>
-      <c r="E104" t="s">
-        <v>219</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I104" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>339</v>
+      </c>
+      <c r="E105" t="s">
         <v>340</v>
       </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
         <v>341</v>
-      </c>
-      <c r="E105" t="s">
-        <v>342</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" t="s">
         <v>344</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s">
         <v>345</v>
-      </c>
-      <c r="E106" t="s">
-        <v>346</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I106" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>354</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>355</v>
+      </c>
+      <c r="E111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s">
         <v>356</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>41</v>
-      </c>
-      <c r="D111" t="s">
-        <v>357</v>
-      </c>
-      <c r="E111" t="s">
-        <v>99</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" t="s">
-        <v>43</v>
-      </c>
-      <c r="I111" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>371</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>372</v>
+      </c>
+      <c r="E119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s">
         <v>373</v>
-      </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" t="s">
-        <v>374</v>
-      </c>
-      <c r="E119" t="s">
-        <v>72</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" t="s">
-        <v>43</v>
-      </c>
-      <c r="I119" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D123" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>386</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E126" t="s">
         <v>388</v>
       </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>265</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>389</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s">
+        <v>266</v>
+      </c>
+      <c r="I126" t="s">
         <v>390</v>
-      </c>
-      <c r="F126" t="s">
-        <v>391</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s">
-        <v>268</v>
-      </c>
-      <c r="I126" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>391</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" t="s">
+        <v>392</v>
+      </c>
+      <c r="E127" t="s">
         <v>393</v>
       </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>265</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>271</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="s">
+        <v>266</v>
+      </c>
+      <c r="I127" t="s">
         <v>394</v>
-      </c>
-      <c r="E127" t="s">
-        <v>395</v>
-      </c>
-      <c r="F127" t="s">
-        <v>273</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" t="s">
-        <v>268</v>
-      </c>
-      <c r="I127" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" t="s">
+        <v>395</v>
+      </c>
+      <c r="E128" t="s">
+        <v>396</v>
+      </c>
+      <c r="F128" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
         <v>114</v>
-      </c>
-      <c r="D128" t="s">
-        <v>397</v>
-      </c>
-      <c r="E128" t="s">
-        <v>398</v>
-      </c>
-      <c r="F128" t="s">
-        <v>290</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/MBB.xlsx
+++ b/Departments/MBB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFF055-3269-42D7-A5E6-444312CE945F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214D8A6-779E-4BC3-8D98-196947036424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{6CF13622-60FC-4DAD-A94C-C0B4982C381E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CF13622-60FC-4DAD-A94C-C0B4982C381E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="400">
   <si>
     <t>Course_Code</t>
   </si>
@@ -84,9 +84,6 @@
     <t>HEALTH SCI</t>
   </si>
   <si>
-    <t>Prerequisite:    MBB 231 with a minimum grade of C-.  Students with credit for HSCI 426, MBB 426 or MBB 326 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>BISC202</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>MBB 231 - Cellular Biology and Biochemistry</t>
   </si>
   <si>
-    <t>BISC101,CHEM281,CHEM282,CHEM283,MBB222</t>
-  </si>
-  <si>
     <t>CHEM282,CHEM283</t>
   </si>
   <si>
@@ -201,12 +195,6 @@
     <t>MBB 309W - Biochemistry Laboratory</t>
   </si>
   <si>
-    <t>FALX99,MBB231</t>
-  </si>
-  <si>
-    <t>REQ-MBB 231, with a minimum grade of C.Recommended: CHEM 215 and CHEM 286 precede MBB 309W.</t>
-  </si>
-  <si>
     <t>MBB322</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>MBB 421 - Nucleic Acids and Biotechnology</t>
   </si>
   <si>
-    <t>REQ-MBB 331</t>
-  </si>
-  <si>
     <t>MBB422</t>
   </si>
   <si>
@@ -306,12 +291,6 @@
     <t>MBB 423 - Proteins in Human Health</t>
   </si>
   <si>
-    <t>MBB323,MBB324</t>
-  </si>
-  <si>
-    <t>REQ-  MBB 323 or MBB 324, with a minimum grade of C.</t>
-  </si>
-  <si>
     <t>MBB424</t>
   </si>
   <si>
@@ -366,9 +345,6 @@
     <t>MATH 152 - Calculus II</t>
   </si>
   <si>
-    <t>FANX99,MATH150,MATH151,MATH154,MATH155,MATH157</t>
-  </si>
-  <si>
     <t>REQ-MATH 150 or 151 or 155, with a minimum grade of C-; or MATH 154 or 157, with a grade of at least B. Students with credit for MATH 158 or 251 may not take this course for further credit. Quantitative.</t>
   </si>
   <si>
@@ -468,9 +444,6 @@
     <t>MBB 229 - Introductory Molecular Biology and Biochemistry Laboratory</t>
   </si>
   <si>
-    <t>REQ-or Corequisite: MBB 222</t>
-  </si>
-  <si>
     <t>MBB251</t>
   </si>
   <si>
@@ -501,9 +474,6 @@
     <t>MBB 308 - Molecular Biology Laboratory</t>
   </si>
   <si>
-    <t>REQ or corequisite: MBB 331 with a minimum grade of C-.  Students with credit for BISC 357 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>MBB 321 - Intermediary Metabolism</t>
   </si>
   <si>
@@ -522,9 +492,6 @@
     <t>MBB 342 - Introductory Genomics and Bioinformatics</t>
   </si>
   <si>
-    <t>REQ-MBB 231, BISC 202 and either MBB 243 or 3 units of CMPT or equivalent, all with a minimum grade of C. Recommended: STAT 201 (or an equivalent statistics course) or STAT 270.</t>
-  </si>
-  <si>
     <t>MBB736</t>
   </si>
   <si>
@@ -762,15 +729,6 @@
     <t>MBB 747 - Stem Cell Biology and Applications</t>
   </si>
   <si>
-    <t>MBB761</t>
-  </si>
-  <si>
-    <t>MBB 761 - Comparative Genomics</t>
-  </si>
-  <si>
-    <t>REQ- MBB 331</t>
-  </si>
-  <si>
     <t>MBB762</t>
   </si>
   <si>
@@ -840,9 +798,6 @@
     <t>PHYSICS</t>
   </si>
   <si>
-    <t>Prerequisite: PHYS 125 with a minimum grade of C- or permission of the department. Corequisite: MATH 152. Recommended Corequisite: PHYS 133.  Students with credit in PHYS 102, 121 or 141 may not take this course for further credit. Quantitative.</t>
-  </si>
-  <si>
     <t>PHYS141</t>
   </si>
   <si>
@@ -897,12 +852,6 @@
     <t>FANX99,MATH152,MATH155,MATH158</t>
   </si>
   <si>
-    <t>MATH152,MATH155,MATH158</t>
-  </si>
-  <si>
-    <t>REQ: MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
-  </si>
-  <si>
     <t>MBB343</t>
   </si>
   <si>
@@ -1191,12 +1140,6 @@
     <t>ONC 502 - Concepts in Oncology</t>
   </si>
   <si>
-    <t>ONC548</t>
-  </si>
-  <si>
-    <t>ONC 548 - Rotation in Oncology</t>
-  </si>
-  <si>
     <t>PHYS102</t>
   </si>
   <si>
@@ -1234,6 +1177,66 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-MBB 231 with a minimum grade of C. Students with credit for HSCI 426, MBB 426 or MBB 326 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ- BISC 101; MATH 12 or equivalent is recommended.  Students with credit for MBB 243 may not take this course for further credit. CMPT 120 will be accepted in lieu of MBB 110.</t>
+  </si>
+  <si>
+    <t>REQ or CoREQ-MBB 222 with a minimum grade of C- or better.  Students who have taken MBB 308 or MBB 309 first may not then take this course for further credit.</t>
+  </si>
+  <si>
+    <t>BISC101,CHEM281,MBB222</t>
+  </si>
+  <si>
+    <t>MBB304</t>
+  </si>
+  <si>
+    <t>MBB 304 - Introduction to Cells and Disease</t>
+  </si>
+  <si>
+    <t>REQ-MBB 231 with a minimum grade of C.  Students with credit for MBB 438 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-MBB 229 with a minimum grade of C. Corequisite: MBB 331. Students with credit for BISC 357 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>FALX99,MBB229,MBB231</t>
+  </si>
+  <si>
+    <t>REQ-MBB 229 and MBB 231, both with a minimum grade of C. Writing.</t>
+  </si>
+  <si>
+    <t>BISC202,MBB110,MBB231</t>
+  </si>
+  <si>
+    <t>REQ-MBB 231, BISC 202 and either MBB 110 or three units of CMPT or equivalent, all with a minimum grade of C.</t>
+  </si>
+  <si>
+    <t>REQ - MBB 331 with a minimum grade of C.</t>
+  </si>
+  <si>
+    <t>REQ- MBB 331 with a minimum grade of C.</t>
+  </si>
+  <si>
+    <t>MBB748</t>
+  </si>
+  <si>
+    <t>MBB 748 - Cancer Immunology</t>
+  </si>
+  <si>
+    <t>MBB322,MBB326</t>
+  </si>
+  <si>
+    <t>REQ-MBB 326 and MBB 322, both with a min grade of C, or instructor permission. Students with credit for MBB 448 or MBB 420 titled "Cancer Immunology" or MBB 829 titled "Cancer Immunology" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-PHYS 125 with a minimum grade of C- or permission of the department. Corequisite: MATH 152. Recommended Corequisite: PHYS 133. Students with credit in PHYS 102, 121 or 141 may not take this course for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ-MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1591,7 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,10 +1610,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="F1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1624,469 +1627,472 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
@@ -2094,592 +2100,595 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2688,27 +2697,24 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2717,841 +2723,844 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I48" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I52" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>307</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I65" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3560,516 +3569,528 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I73" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I77" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I79" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I81" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
-      </c>
-      <c r="I82" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
-      </c>
-      <c r="I83" t="s">
-        <v>272</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
-      </c>
-      <c r="I85" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
-      </c>
-      <c r="I86" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="E87" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
-      </c>
-      <c r="I87" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="F88" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4078,195 +4099,189 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I90" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s">
-        <v>305</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I94" t="s">
-        <v>309</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -4275,111 +4290,105 @@
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
-      </c>
-      <c r="I97" t="s">
-        <v>317</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I98" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="E99" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>41</v>
-      </c>
-      <c r="I99" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -4388,82 +4397,76 @@
         <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
       <c r="E101" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>41</v>
-      </c>
-      <c r="I101" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E102" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>41</v>
-      </c>
-      <c r="I102" t="s">
-        <v>332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4472,111 +4475,102 @@
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="E104" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E105" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" t="s">
-        <v>345</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -4585,24 +4579,24 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4611,24 +4605,24 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -4637,24 +4631,24 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4663,79 +4657,79 @@
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>41</v>
-      </c>
-      <c r="I111" t="s">
-        <v>356</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I112" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -4744,24 +4738,24 @@
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4770,24 +4764,24 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
@@ -4796,24 +4790,24 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -4822,24 +4816,24 @@
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
@@ -4848,24 +4842,24 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
@@ -4874,279 +4868,294 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="E119" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>41</v>
-      </c>
-      <c r="I119" t="s">
-        <v>373</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>41</v>
+        <v>252</v>
+      </c>
+      <c r="I120" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="D121" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>41</v>
+        <v>252</v>
+      </c>
+      <c r="I121" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="D122" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>41</v>
+        <v>252</v>
+      </c>
+      <c r="I122" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="D123" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>41</v>
+        <v>252</v>
+      </c>
+      <c r="I123" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>41</v>
+        <v>106</v>
+      </c>
+      <c r="I124" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>384</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>41</v>
+        <v>106</v>
+      </c>
+      <c r="I125" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="D126" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="E126" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="I126" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="E127" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="I127" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D128" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E128" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F128" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
